--- a/Texts/Город Сокровищ/Все персонажи/Геракросс.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Геракросс.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -109,6 +109,30 @@
   </si>
   <si>
     <t xml:space="preserve"> Îï â ïäéîïœëô...</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1302.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I am back from the\nlonely expedition!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It was such a dangerous\nadventure, but I feel like it let me gain so\nmuch strength!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я вернулся из одиночной\nэкспедиции!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это было очень опасное\nприключение, но я чувствую, что я стал\nгораздо сильнее!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ âåñîôìòÿ éè ïäéîïœîïê\nüëòðåäéøéé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï áúìï ïœåîû ïðàòîïå\nðñéëìýœåîéå, îï ÿ œôâòóâôý, œóï ÿ òóàì\nãïñàèäï òéìûîåå!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um1408.ssb</t>
   </si>
 </sst>
 </file>
@@ -504,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,17 +660,52 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6">
         <v>292</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="7" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4">
+        <v>267</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="4">
+        <v>270</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Геракросс.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Геракросс.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -133,6 +133,39 @@
   </si>
   <si>
     <t>SCRIPT/P01P04A/um1408.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hey! Long time no see!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/um2103.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Привет! Давненько не виделись!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéâåó! Äàâîåîûëï îå âéäåìéòû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], I\'m jealous of you.\nYou\'ve got a partner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want a partner, too…</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/m22a0501.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], я тебе завидую.\nУ тебя есть спутник.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я тоже хочу спутника...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], ÿ óåáå èàâéäôý.\nÔ óåáÿ åòóû òðôóîéë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óïçå öïœô òðôóîéëà...</t>
   </si>
 </sst>
 </file>
@@ -528,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -692,20 +725,68 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>270</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="8">
+        <v>248</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4">
+        <v>226</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>229</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Геракросс.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Геракросс.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -166,6 +166,273 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ óïçå öïœô òðôóîéëà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoa! What kind of Pokémon is\n[CS:K]Shaymin[CR]?!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us3105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ого! Что за Покемоны эти\n[CS:K]Шеймины[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïãï! Œóï èà Ðïëåíïîú üóé\n[CS:K]Šåêíéîú[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So curious!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне так интересно! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå óàë éîóåñåòîï! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh no!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P21A/s32a0401.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I completely forgot to bring the\n[s_item:0]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m so forgetful!</t>
+  </si>
+  <si>
+    <t>[CN]Give the [s_item:0]?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>[CN][player] gave the\n[CN][s_item:0].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Woo-hoo!\nFor me?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Really?!\nYou\'re really a great friend!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'ll find a way to pay you back!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh, that\'s right...! Here!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This is the best item I have\nwith me right now.[K] The [s_item:1]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please take this as a token of\nmy gratitude!</t>
+  </si>
+  <si>
+    <t>[CN][player] received the\n[CN][s_item:1] as thanks!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I won\'t forget this favor!\nThank you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hee-hee-hee. You\'re really nice,\naren\'t you, [player]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mountain climbing is give\nand take.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We should help others when\nthey\'re in trouble.</t>
+  </si>
+  <si>
+    <t>[CN]Don\'t have the [s_item:0]...?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, нет! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я совершенно забыл взять с\nсобой предмет [s_item:0]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Какой я забывчивый!</t>
+  </si>
+  <si>
+    <t>[CN]Дать предмет [s_item:0]?</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>[CN][player] отдаёт предмет\n[CN][s_item:0].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ух-ху! Это мне?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Правда?! Спасибо тебе огромное,\nдруг!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Надо как-нибудь тебя\nотблагодарить!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> О, точно!.. Вот!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это лучшее, что я могу тебе\nдать.[K] [s_item:1]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Прошу, прими это в знак\nпризнательности!</t>
+  </si>
+  <si>
+    <t>[CN][player] получает предмет\n[CN][s_item:1]\n[CN]в знак признательности!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я этого никогда не забуду!\nСпасибо тебе!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хи-хи-хи. Не можешь пройти мимо\nбеды, да, [player]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Восхождение на гору даётся\nнепросто.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Нам нужно помогать тем, кто\nнуждается в помощи.</t>
+  </si>
+  <si>
+    <t>[CN]Нет предмета [s_item:0]?..</t>
+  </si>
+  <si>
+    <t>Нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, îåó! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ òïâåñšåîîï èàáúì âèÿóû ò\nòïáïê ðñåäíåó [s_item:0]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàëïê ÿ èàáúâœéâúê!</t>
+  </si>
+  <si>
+    <t>[CN]Äàóû ðñåäíåó [s_item:0]?</t>
+  </si>
+  <si>
+    <t>Äà</t>
+  </si>
+  <si>
+    <t>[CN][player] ïóäàæó ðñåäíåó\n[CN][s_item:0].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôö-öô! Üóï íîå?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñàâäà?! Òðàòéáï óåáå ïãñïíîïå,\näñôã!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàäï ëàë-îéáôäû óåáÿ\nïóáìàãïäàñéóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ï, óïœîï!.. Âïó!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ìôœšåå, œóï ÿ íïãô óåáå\näàóû.[K] [s_item:1]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñïšô, ðñéíé üóï â èîàë\nðñéèîàóåìûîïòóé!</t>
+  </si>
+  <si>
+    <t>[CN][player] ðïìôœàåó ðñåäíåó\n[CN][s_item:1]\n[CN]â èîàë ðñéèîàóåìûîïòóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ üóïãï îéëïãäà îå èàáôäô!\nÒðàòéáï óåáå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öé-öé-öé. Îå íïçåšû ðñïêóé íéíï\náåäú, äà, [player]?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïòöïçäåîéå îà ãïñô äàæóòÿ\nîåðñïòóï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàí îôçîï ðïíïãàóû óåí, ëóï\nîôçäàåóòÿ â ðïíïþé.</t>
+  </si>
+  <si>
+    <t>[CN]Îåó ðñåäíåóà [s_item:0]?..</t>
+  </si>
+  <si>
+    <t>Îåó</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I will never forget yoooou!\nThank yoooou!!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P21A/us3106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я тебяяяя никогдаааа не\nзабууууду! Спасиииибо!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óåáÿÿÿÿ îéëïãäàààà îå\nèàáôôôôäô! Òðàòééééáï!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoa! Still the 3rd Station\nCleeeearing!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I heard there\'s a gondola to\nthe 6th Station Clearing…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> But! I want to climb\nthere myself!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoa!\nWhat willpower!!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P23A/us3108.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вау! Я на Поляяяяне 3-го\nПерехооода!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Говорят, на Поляне 6-го\nПерехода есть Гондола...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Но! Я сам хочу туда дойти!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вау! Вот это у меня сила воли!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàô! Ÿ îà Ðïìÿÿÿÿîå 3-ãï\nÐåñåöïïïäà!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãïâïñÿó, îà Ðïìÿîå 6-ãï\nÐåñåöïäà åòóû Ãïîäïìà...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îï! Ÿ òàí öïœô óôäà äïêóé!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàô! Âïó üóï ô íåîÿ òéìà âïìé!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoa!\nWe caught up to [CS:N]Mr. Mime[CR]\'s team!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This makes me haaaappy!!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P27A/us3107.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вау! Мы догнали команду\n[CS:N]Мр-а Майма[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я так счааааастлив!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàô! Íú äïãîàìé ëïíàîäô\n[CS:N]Íñ-à Íàêíà[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óàë òœàààààòóìéâ!!</t>
   </si>
 </sst>
 </file>
@@ -561,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,17 +1043,428 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6">
         <v>229</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="7" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="4">
+        <v>192</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
+        <v>202</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="4">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>20</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>66</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="4">
+        <v>92</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>95</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>98</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>103</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="4">
+        <v>113</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="4">
+        <v>133</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="4">
+        <v>145</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="4">
+        <v>148</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="4">
+        <v>164</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6">
+        <v>171</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="8">
+        <v>163</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="4">
+        <v>129</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="4">
+        <v>136</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>139</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6">
+        <v>146</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="4">
+        <v>109</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <v>112</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Геракросс.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Геракросс.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -433,6 +433,60 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ óàë òœàààààòóìéâ!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoa!\nWe\'ve finally reached the top!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I met a friend, [CS:N]Zigzagoon[CR], at\nthe 7th Station Clearing! This is so greeeeat!!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us3105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вау! Мы наконец-то дошли до\nвершины!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я познакомился с моим новым\nдругом на Поляне 7-го Перехода, [CS:N]Зигзагуном[CR]!\nКак здооооорово!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàô! Íú îàëïîåø-óï äïšìé äï\nâåñšéîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïèîàëïíéìòÿ ò íïéí îïâúí\näñôãïí îà Ðïìÿîå 7-ãï Ðåñåöïäà, [CS:N]Èéãèàãôîïí[CR]!\nËàë èäïïïïïñïâï!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whooooa!\nYAHOOOO!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ваааау!\nУРАААААА!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âààààô!\nÔÑÀÀÀÀÀÀ!!</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0204.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0304.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P31A/us0404.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whooooa!\nFinally back!!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2005.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàààààô!\nÎàëïîåø-óï íú âåñîôìéòû!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вааааау!\nНаконец-то мы вернулись!!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2105.ssb</t>
   </si>
 </sst>
 </file>
@@ -828,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,17 +1508,100 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="4">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6">
         <v>112</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="7" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="4">
+        <v>76</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="4">
+        <v>79</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="4">
+        <v>93</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" s="4">
+        <v>51</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Геракросс.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Геракросс.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -487,6 +487,21 @@
   </si>
   <si>
     <t>SCRIPT/P01P04A/us2105.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whooooa!\nI\'m ready to explore the whoooole world\nwith [CS:N]Zigzagoon[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2205.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вааааау! Я готов исследовать\nвееееесь мир вместе с [CS:N]Зигзагуном[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàààààô! Ÿ ãïóïâ éòòìåäïâàóû\nâåååååòû íéñ âíåòóå ò [CS:N]Èéãèàãôîïí[CR]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/P01P04A/us2305.ssb</t>
   </si>
 </sst>
 </file>
@@ -882,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,8 +1615,34 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="6" t="s">
         <v>155</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="4">
+        <v>21</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
